--- a/edges_database.xlsx
+++ b/edges_database.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28204"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veersaysit/Dropbox/Matlab/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="17380" windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,9 +126,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -151,6 +171,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,11 +199,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -186,6 +210,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,9 +283,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -284,9 +318,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -493,12 +527,15 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="8.83203125" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>5</v>
       </c>
@@ -508,7 +545,7 @@
       <c r="C1" s="2">
         <v>188</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -519,7 +556,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>6</v>
       </c>
@@ -529,7 +566,7 @@
       <c r="C2" s="2">
         <v>284</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -540,7 +577,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -550,7 +587,7 @@
       <c r="C3" s="2">
         <v>400</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -561,7 +598,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -571,7 +608,7 @@
       <c r="C4" s="2">
         <v>532</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -582,17 +619,17 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>685</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -603,17 +640,17 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>1560</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -624,17 +661,17 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>118</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -645,17 +682,17 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>73</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -666,7 +703,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>14</v>
       </c>
@@ -687,14 +724,14 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>189</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -708,7 +745,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -718,7 +755,7 @@
       <c r="C11" s="2">
         <v>135</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -729,14 +766,14 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>229</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -750,7 +787,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>16</v>
       </c>
@@ -771,14 +808,14 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>270</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -792,7 +829,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>17</v>
       </c>
@@ -802,7 +839,7 @@
       <c r="C15" s="2">
         <v>200</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -813,14 +850,14 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>377</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -834,7 +871,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>19</v>
       </c>
@@ -844,7 +881,7 @@
       <c r="C17" s="2">
         <v>294</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -855,14 +892,14 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>951</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -876,7 +913,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>29</v>
       </c>
@@ -897,7 +934,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>30</v>
       </c>
@@ -907,7 +944,7 @@
       <c r="C20" s="2">
         <v>1020</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -918,7 +955,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>31</v>
       </c>
@@ -928,7 +965,7 @@
       <c r="C21" s="2">
         <v>1115</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -939,7 +976,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>32</v>
       </c>
@@ -949,7 +986,7 @@
       <c r="C22" s="2">
         <v>1217</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -960,7 +997,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>33</v>
       </c>
@@ -970,7 +1007,7 @@
       <c r="C23" s="2">
         <v>1323</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -981,7 +1018,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>47</v>
       </c>
@@ -991,7 +1028,7 @@
       <c r="C24" s="2">
         <v>367</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1002,7 +1039,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>49</v>
       </c>
@@ -1012,7 +1049,7 @@
       <c r="C25" s="2">
         <v>443</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1023,282 +1060,282 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="3"/>
       <c r="F26" s="1"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="4"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="3"/>
       <c r="F29" s="1"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="3"/>
       <c r="F30" s="1"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="3"/>
       <c r="F31" s="1"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="4"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="1"/>
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
       <c r="G33" s="3"/>
       <c r="H33" s="1"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="4"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
       <c r="G34" s="3"/>
       <c r="H34" s="1"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="3"/>
       <c r="F35" s="1"/>
       <c r="G35" s="3"/>
       <c r="H35" s="1"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="4"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="3"/>
       <c r="F36" s="1"/>
       <c r="G36" s="3"/>
       <c r="H36" s="1"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="4"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="3"/>
       <c r="F37" s="1"/>
       <c r="G37" s="3"/>
       <c r="H37" s="1"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="4"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="3"/>
       <c r="F38" s="1"/>
       <c r="G38" s="3"/>
       <c r="H38" s="1"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="4"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="1"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="1"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="4"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="1"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="4"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="4"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="4"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="4"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="1"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="4"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="4"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="4"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="4"/>
       <c r="C51" s="1"/>
@@ -1309,7 +1346,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="4"/>
       <c r="C52" s="1"/>
